--- a/procurement_of_goods_and_services_over_5000_april_to_june_2018.xlsx
+++ b/procurement_of_goods_and_services_over_5000_april_to_june_2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manal\Desktop\Tableau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{12168BDD-E150-405F-99DD-FCDDC7335976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28B62498-D8A7-4CF5-B68E-353B5D912FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A445AD7-5EE7-469F-BBF3-61F7FD2897A1}"/>
+    <workbookView xWindow="12570" yWindow="540" windowWidth="16230" windowHeight="12825" xr2:uid="{1982CE1C-7C64-4B13-88B0-A69036F66021}"/>
   </bookViews>
   <sheets>
     <sheet name="procurement_of_goods_and_servic" sheetId="1" r:id="rId1"/>
@@ -3865,17 +3865,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBEC116-EA00-4F92-9432-317C69AB9377}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD03CD64-C848-48DD-9EEE-9D547EECDFDA}">
   <dimension ref="A1:F408"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
